--- a/data/formatted/basicdata200203.xlsx
+++ b/data/formatted/basicdata200203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EC82C-38BF-49BD-BD83-2613C6F7AEDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC378FED-A73B-4C62-94CF-B5918E75DE50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200203.xlsx
+++ b/data/formatted/basicdata200203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC378FED-A73B-4C62-94CF-B5918E75DE50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C05E3-74C3-487C-A394-F410530DAFC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200203.xlsx
+++ b/data/formatted/basicdata200203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C05E3-74C3-487C-A394-F410530DAFC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D25DF-BC4D-4385-BC4A-8CB8D8624467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46E7C35B-E351-4B61-8BF2-1C664BC9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Arizona State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Auburn NCAA</t>
-  </si>
-  <si>
-    <t>Austin Peay NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Central Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Colorado State NCAA</t>
-  </si>
-  <si>
-    <t>Colorado NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Dayton NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>East Tennessee State NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Holy Cross NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>IUPUI NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana State NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Manhattan NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Milwaukee NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi State NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Asheville NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Wilmington NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Sam Houston State NCAA</t>
-  </si>
-  <si>
-    <t>San Diego NCAA</t>
-  </si>
-  <si>
-    <t>South Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Texas Southern NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Troy NCAA</t>
-  </si>
-  <si>
-    <t>Tulsa NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Vermont NCAA</t>
-  </si>
-  <si>
-    <t>Wagner NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Weber State NCAA</t>
-  </si>
-  <si>
-    <t>Western Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Central Michigan</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>East Tennessee State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IUPUI</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>North Carolina-Asheville</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina-Wilmington</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Sam Houston State</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>South Carolina State</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA66"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
